--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf21</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H2">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I2">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J2">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N2">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O2">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P2">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q2">
-        <v>102.5861328308749</v>
+        <v>117.6159772382933</v>
       </c>
       <c r="R2">
-        <v>102.5861328308749</v>
+        <v>1058.54379514464</v>
       </c>
       <c r="S2">
-        <v>0.05378424380725299</v>
+        <v>0.03758090305208647</v>
       </c>
       <c r="T2">
-        <v>0.05378424380725299</v>
+        <v>0.03758090305208647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H3">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I3">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J3">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N3">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O3">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P3">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q3">
-        <v>7.601890164983123</v>
+        <v>8.553270075653336</v>
       </c>
       <c r="R3">
-        <v>7.601890164983123</v>
+        <v>76.97943068088001</v>
       </c>
       <c r="S3">
-        <v>0.003985547585690426</v>
+        <v>0.002732958744543647</v>
       </c>
       <c r="T3">
-        <v>0.003985547585690426</v>
+        <v>0.002732958744543646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H4">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I4">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J4">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N4">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O4">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P4">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q4">
-        <v>111.8140359902133</v>
+        <v>134.9533172464089</v>
       </c>
       <c r="R4">
-        <v>111.8140359902133</v>
+        <v>1214.57985521768</v>
       </c>
       <c r="S4">
-        <v>0.05862228360518366</v>
+        <v>0.043120566194161</v>
       </c>
       <c r="T4">
-        <v>0.05862228360518366</v>
+        <v>0.04312056619416099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.67187473357195</v>
+        <v>5.983973333333334</v>
       </c>
       <c r="H5">
-        <v>5.67187473357195</v>
+        <v>17.95192</v>
       </c>
       <c r="I5">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="J5">
-        <v>0.1440824037695825</v>
+        <v>0.1291745374956022</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.31183073967947</v>
+        <v>23.92250533333333</v>
       </c>
       <c r="N5">
-        <v>9.31183073967947</v>
+        <v>71.767516</v>
       </c>
       <c r="O5">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489707</v>
       </c>
       <c r="P5">
-        <v>0.1921839728308388</v>
+        <v>0.3540953998489706</v>
       </c>
       <c r="Q5">
-        <v>52.81553749568658</v>
+        <v>143.1516339811911</v>
       </c>
       <c r="R5">
-        <v>52.81553749568658</v>
+        <v>1288.36470583072</v>
       </c>
       <c r="S5">
-        <v>0.02769032877145538</v>
+        <v>0.04574010950481113</v>
       </c>
       <c r="T5">
-        <v>0.02769032877145538</v>
+        <v>0.04574010950481112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H6">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I6">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J6">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.0868121476071</v>
+        <v>19.655164</v>
       </c>
       <c r="N6">
-        <v>18.0868121476071</v>
+        <v>58.965492</v>
       </c>
       <c r="O6">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313945</v>
       </c>
       <c r="P6">
-        <v>0.373288079599679</v>
+        <v>0.2909311988313944</v>
       </c>
       <c r="Q6">
-        <v>609.4101286621758</v>
+        <v>5.179437093181333</v>
       </c>
       <c r="R6">
-        <v>609.4101286621758</v>
+        <v>46.614933838632</v>
       </c>
       <c r="S6">
-        <v>0.3195038357924261</v>
+        <v>0.001654944573294375</v>
       </c>
       <c r="T6">
-        <v>0.3195038357924261</v>
+        <v>0.001654944573294374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H7">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I7">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J7">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.34027821876731</v>
+        <v>1.429363</v>
       </c>
       <c r="N7">
-        <v>1.34027821876731</v>
+        <v>4.288089</v>
       </c>
       <c r="O7">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286768</v>
       </c>
       <c r="P7">
-        <v>0.02766158449205318</v>
+        <v>0.02115710106286767</v>
       </c>
       <c r="Q7">
-        <v>45.15882152566938</v>
+        <v>0.3766590673993334</v>
       </c>
       <c r="R7">
-        <v>45.15882152566938</v>
+        <v>3.389931606594</v>
       </c>
       <c r="S7">
-        <v>0.02367603690636275</v>
+        <v>0.0001203508930333915</v>
       </c>
       <c r="T7">
-        <v>0.02367603690636275</v>
+        <v>0.0001203508930333915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>33.6936174096772</v>
+        <v>0.2635153333333333</v>
       </c>
       <c r="H8">
-        <v>33.6936174096772</v>
+        <v>0.790546</v>
       </c>
       <c r="I8">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="J8">
-        <v>0.8559175962304176</v>
+        <v>0.005688439672135256</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.713770356807</v>
+        <v>22.55245966666666</v>
       </c>
       <c r="N8">
-        <v>19.713770356807</v>
+        <v>67.65737899999999</v>
       </c>
       <c r="O8">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567673</v>
       </c>
       <c r="P8">
-        <v>0.406866363077429</v>
+        <v>0.3338163002567672</v>
       </c>
       <c r="Q8">
-        <v>664.2282361044906</v>
+        <v>5.942918926548221</v>
       </c>
       <c r="R8">
-        <v>664.2282361044906</v>
+        <v>53.48627033893399</v>
       </c>
       <c r="S8">
-        <v>0.3482440794722454</v>
+        <v>0.001898893885586009</v>
       </c>
       <c r="T8">
-        <v>0.3482440794722454</v>
+        <v>0.001898893885586009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2635153333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.790546</v>
+      </c>
+      <c r="I9">
+        <v>0.005688439672135256</v>
+      </c>
+      <c r="J9">
+        <v>0.005688439672135256</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.92250533333333</v>
+      </c>
+      <c r="N9">
+        <v>71.767516</v>
+      </c>
+      <c r="O9">
+        <v>0.3540953998489707</v>
+      </c>
+      <c r="P9">
+        <v>0.3540953998489706</v>
+      </c>
+      <c r="Q9">
+        <v>6.303946967081777</v>
+      </c>
+      <c r="R9">
+        <v>56.735522703736</v>
+      </c>
+      <c r="S9">
+        <v>0.002014250320221481</v>
+      </c>
+      <c r="T9">
+        <v>0.002014250320221481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H10">
+        <v>118.584607</v>
+      </c>
+      <c r="I10">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J10">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.655164</v>
+      </c>
+      <c r="N10">
+        <v>58.965492</v>
+      </c>
+      <c r="O10">
+        <v>0.2909311988313945</v>
+      </c>
+      <c r="P10">
+        <v>0.2909311988313944</v>
+      </c>
+      <c r="Q10">
+        <v>776.9332994868493</v>
+      </c>
+      <c r="R10">
+        <v>6992.399695381644</v>
+      </c>
+      <c r="S10">
+        <v>0.2482473528812948</v>
+      </c>
+      <c r="T10">
+        <v>0.2482473528812948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H11">
+        <v>118.584607</v>
+      </c>
+      <c r="I11">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J11">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.429363</v>
+      </c>
+      <c r="N11">
+        <v>4.288089</v>
+      </c>
+      <c r="O11">
+        <v>0.02115710106286768</v>
+      </c>
+      <c r="P11">
+        <v>0.02115710106286767</v>
+      </c>
+      <c r="Q11">
+        <v>56.50014987178034</v>
+      </c>
+      <c r="R11">
+        <v>508.5013488460231</v>
+      </c>
+      <c r="S11">
+        <v>0.01805304606242239</v>
+      </c>
+      <c r="T11">
+        <v>0.01805304606242239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H12">
+        <v>118.584607</v>
+      </c>
+      <c r="I12">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J12">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>22.55245966666666</v>
+      </c>
+      <c r="N12">
+        <v>67.65737899999999</v>
+      </c>
+      <c r="O12">
+        <v>0.3338163002567673</v>
+      </c>
+      <c r="P12">
+        <v>0.3338163002567672</v>
+      </c>
+      <c r="Q12">
+        <v>891.4581888183391</v>
+      </c>
+      <c r="R12">
+        <v>8023.123699365053</v>
+      </c>
+      <c r="S12">
+        <v>0.2848405850600976</v>
+      </c>
+      <c r="T12">
+        <v>0.2848405850600976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>39.52820233333333</v>
+      </c>
+      <c r="H13">
+        <v>118.584607</v>
+      </c>
+      <c r="I13">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="J13">
+        <v>0.8532854292645441</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>23.92250533333333</v>
+      </c>
+      <c r="N13">
+        <v>71.767516</v>
+      </c>
+      <c r="O13">
+        <v>0.3540953998489707</v>
+      </c>
+      <c r="P13">
+        <v>0.3540953998489706</v>
+      </c>
+      <c r="Q13">
+        <v>945.6136311362458</v>
+      </c>
+      <c r="R13">
+        <v>8510.522680226213</v>
+      </c>
+      <c r="S13">
+        <v>0.3021444452607294</v>
+      </c>
+      <c r="T13">
+        <v>0.3021444452607293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>33.6936174096772</v>
-      </c>
-      <c r="H9">
-        <v>33.6936174096772</v>
-      </c>
-      <c r="I9">
-        <v>0.8559175962304176</v>
-      </c>
-      <c r="J9">
-        <v>0.8559175962304176</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.31183073967947</v>
-      </c>
-      <c r="N9">
-        <v>9.31183073967947</v>
-      </c>
-      <c r="O9">
-        <v>0.1921839728308388</v>
-      </c>
-      <c r="P9">
-        <v>0.1921839728308388</v>
-      </c>
-      <c r="Q9">
-        <v>313.7492623264316</v>
-      </c>
-      <c r="R9">
-        <v>313.7492623264316</v>
-      </c>
-      <c r="S9">
-        <v>0.1644936440593834</v>
-      </c>
-      <c r="T9">
-        <v>0.1644936440593834</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.647065</v>
+      </c>
+      <c r="I14">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J14">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.655164</v>
+      </c>
+      <c r="N14">
+        <v>58.965492</v>
+      </c>
+      <c r="O14">
+        <v>0.2909311988313945</v>
+      </c>
+      <c r="P14">
+        <v>0.2909311988313944</v>
+      </c>
+      <c r="Q14">
+        <v>10.79111089788667</v>
+      </c>
+      <c r="R14">
+        <v>97.11999808098</v>
+      </c>
+      <c r="S14">
+        <v>0.003447998324718737</v>
+      </c>
+      <c r="T14">
+        <v>0.003447998324718737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.647065</v>
+      </c>
+      <c r="I15">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J15">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.429363</v>
+      </c>
+      <c r="N15">
+        <v>4.288089</v>
+      </c>
+      <c r="O15">
+        <v>0.02115710106286768</v>
+      </c>
+      <c r="P15">
+        <v>0.02115710106286767</v>
+      </c>
+      <c r="Q15">
+        <v>0.7847512565316667</v>
+      </c>
+      <c r="R15">
+        <v>7.062761308785</v>
+      </c>
+      <c r="S15">
+        <v>0.0002507453628682493</v>
+      </c>
+      <c r="T15">
+        <v>0.0002507453628682493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.647065</v>
+      </c>
+      <c r="I16">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J16">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>22.55245966666666</v>
+      </c>
+      <c r="N16">
+        <v>67.65737899999999</v>
+      </c>
+      <c r="O16">
+        <v>0.3338163002567673</v>
+      </c>
+      <c r="P16">
+        <v>0.3338163002567672</v>
+      </c>
+      <c r="Q16">
+        <v>12.38178899362611</v>
+      </c>
+      <c r="R16">
+        <v>111.436100942635</v>
+      </c>
+      <c r="S16">
+        <v>0.003956255116922634</v>
+      </c>
+      <c r="T16">
+        <v>0.003956255116922634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5490216666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.647065</v>
+      </c>
+      <c r="I17">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="J17">
+        <v>0.01185159356771833</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.92250533333333</v>
+      </c>
+      <c r="N17">
+        <v>71.767516</v>
+      </c>
+      <c r="O17">
+        <v>0.3540953998489707</v>
+      </c>
+      <c r="P17">
+        <v>0.3540953998489706</v>
+      </c>
+      <c r="Q17">
+        <v>13.13397374894889</v>
+      </c>
+      <c r="R17">
+        <v>118.20576374054</v>
+      </c>
+      <c r="S17">
+        <v>0.004196594763208712</v>
+      </c>
+      <c r="T17">
+        <v>0.004196594763208712</v>
       </c>
     </row>
   </sheetData>
